--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Teaching_N/2019-1/SE/projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plot_\OneDrive\문서\GitHub\KNU_SoftwareEngineering_2Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E2CB41-B07B-2A4F-A7A3-7D6B99CBF695}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="11580" yWindow="5460" windowWidth="28035" windowHeight="17445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="팀원이름1" sheetId="1" r:id="rId1"/>
     <sheet name="팀원이름2" sheetId="2" r:id="rId2"/>
-    <sheet name="팀원이름3" sheetId="3" r:id="rId3"/>
+    <sheet name="이석기" sheetId="3" r:id="rId3"/>
     <sheet name="팀원이름4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
   <si>
     <t>할일</t>
   </si>
@@ -73,21 +72,36 @@
   </si>
   <si>
     <t>코드 커버리지가 낮음. 개선필요</t>
+  </si>
+  <si>
+    <t>아두이노    시스템 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기, 가스, 출입구를 제어하는 시스템을 개발한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -116,12 +130,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -133,11 +147,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -157,11 +171,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -181,11 +195,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -201,15 +215,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -234,60 +248,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72FE4043-6CB5-2048-BE5C-411DA9E676BA}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{03FBFC27-16C8-DD42-928B-ABA1D393C713}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{05FCB8A4-A8BA-4B41-9F2B-B0506496E623}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{60A0A5BA-661B-834B-8197-1C7A6D8DDDCD}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{6ECDDE03-3D31-CF45-9CCB-373713B27D9F}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{495FFBF1-9FCF-C045-B6CA-30DA46033F57}" name="완성일" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{84E860E1-A248-8246-AD59-8EC3E5E7E7E7}" name="결과" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{FD0E0825-8B19-7E41-AAAF-A4E947367A39}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D46C7571-941F-AD4B-94C8-83666430A1CC}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{4E226D53-8B78-D74B-AEA9-0667C9B5EEFE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7B0DB81B-F367-C943-8F36-2937E2F1F42C}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{2B7D4B8D-CE65-B244-A444-786AB4D654DE}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{F9298CBC-86C8-9A41-AACC-1AE8C0A66611}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{E740C854-D7A5-1549-B300-A67F30554219}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{EA738C33-5E64-6945-B470-E3391E8D2A3F}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{C3FAB94C-D6FC-9E47-8459-1AB7E77BA67F}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC292F7A-8169-F544-87D7-5E751E302B2D}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{CB7A7201-8BFC-D74F-B5EC-48471E641635}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B1EA132-9987-0F4E-8B99-EFA12DA08DC4}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{15B26D7A-C19A-D843-980A-002FDC97EDAC}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{45B34DAB-B154-A248-9621-229186118E7E}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{BAB3B138-7773-EB4C-A303-2882DBAEDF4B}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C27CCA5C-5577-AF45-BE47-6EB01E5D7DBE}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{CEE9A07C-65DC-2D4E-A564-48CF60809DDF}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A834ADBB-1A19-264E-8768-BD31A0F05DCF}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{A931BC6D-B1E1-2649-8D23-2C7B73EDCFEC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{57D18F50-627E-E24B-B7E9-20003FA96EC0}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FF8A36FF-2633-2E46-AE12-285D37CA3C19}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BA5C562F-0A54-764D-AFF2-40A49350A097}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B2046308-6837-614B-AB16-DBF7481F7A94}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FA2DD1A4-BEB6-6D44-97B2-BF29DC61500A}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{C978756B-5187-1148-AC57-6B5399BA191F}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -589,24 +603,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -646,7 +660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -664,7 +678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -672,7 +686,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -680,7 +694,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -688,7 +702,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -696,7 +710,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -704,7 +718,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -712,7 +726,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -720,7 +734,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -728,7 +742,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -736,7 +750,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -744,7 +758,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -752,7 +766,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -761,6 +775,7 @@
       <c r="F15" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -769,16 +784,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,7 +833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -836,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -844,7 +859,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -852,7 +867,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -860,7 +875,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -868,7 +883,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -876,7 +891,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -884,7 +899,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -892,7 +907,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -900,7 +915,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -908,7 +923,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -916,7 +931,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -924,7 +939,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -933,6 +948,7 @@
       <c r="F15" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -941,16 +957,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -970,45 +986,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>43594</v>
       </c>
-      <c r="D2" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1016,7 +1016,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1024,7 +1024,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1032,7 +1032,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1040,7 +1040,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1048,7 +1048,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1056,7 +1056,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1064,7 +1064,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1072,7 +1072,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1080,7 +1080,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1088,7 +1088,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1096,7 +1096,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1105,24 +1105,26 @@
       <c r="F15" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +1182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1188,7 +1190,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1196,7 +1198,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1204,7 +1206,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1212,7 +1214,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1220,7 +1222,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1228,7 +1230,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1236,7 +1238,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1244,7 +1246,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1252,7 +1254,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1260,7 +1262,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1268,7 +1270,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1277,6 +1279,7 @@
       <c r="F15" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
   <si>
     <t>할일</t>
   </si>
@@ -78,7 +78,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>라즈베리파이로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아두이노의 통신문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리파이시스템개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>전기, 가스, 출입구를 제어하는 시스템을 개발한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기를 제어하는 시스템을 개발한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +977,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -986,24 +1002,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>43594</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="D2" s="2">
+        <v>43607</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43607</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
   <si>
     <t>할일</t>
   </si>
@@ -95,6 +95,26 @@
   </si>
   <si>
     <t>전기를 제어하는 시스템을 개발한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리파이로 전기제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복된 데이터를 받아들여서 속도가 느림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티쓰레딩 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기제어 시스템에 멀티쓰레드를 이용하여 속도향상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티쓰레드를 이용한 전기제어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,7 +997,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1032,16 +1052,32 @@
       <c r="C3" s="2">
         <v>43607</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="D3" s="2">
+        <v>43618</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43618</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43622</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
